--- a/classification/droptc/modern-bert/freeze/90995999/prediction.xlsx
+++ b/classification/droptc/modern-bert/freeze/90995999/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4096014797687531</v>
+        <v>0.3893476724624634</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6060334444046021</v>
+        <v>0.7324284911155701</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7615171670913696</v>
+        <v>0.3285148143768311</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7379499077796936</v>
+        <v>0.6059927344322205</v>
       </c>
     </row>
     <row r="6">
@@ -595,14 +595,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5321147441864014</v>
+        <v>0.3128539025783539</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.8417453169822693</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6426293849945068</v>
+        <v>0.6538364291191101</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.5510728359222412</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8581766486167908</v>
+        <v>0.3948695063591003</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7614348530769348</v>
+        <v>0.382396012544632</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7585315704345703</v>
+        <v>0.4626808762550354</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5712313055992126</v>
+        <v>0.5112152099609375</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.835422694683075</v>
+        <v>0.6631042957305908</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.2784272134304047</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.8899350762367249</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.5637675523757935</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3964706361293793</v>
+        <v>0.5010959506034851</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.7122702598571777</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7216593623161316</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8637065887451172</v>
+        <v>0.5823568105697632</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3987219035625458</v>
+        <v>0.6048579812049866</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3920151591300964</v>
+        <v>0.3785121440887451</v>
       </c>
     </row>
     <row r="24">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4470960199832916</v>
+        <v>0.7958446741104126</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5326834321022034</v>
+        <v>0.630168080329895</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.7353950142860413</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8379799723625183</v>
+        <v>0.5518756508827209</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.3480672538280487</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.5938472151756287</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7605918645858765</v>
+        <v>0.793218731880188</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.610224723815918</v>
+        <v>0.9197759628295898</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7381153106689453</v>
+        <v>0.2695208489894867</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9410161972045898</v>
+        <v>0.4091878235340118</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7552381753921509</v>
       </c>
     </row>
     <row r="35">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.3528290390968323</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6815612316131592</v>
+        <v>0.8314955830574036</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3655989468097687</v>
+        <v>0.7946459650993347</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4823233783245087</v>
+        <v>0.8399655222892761</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7091756463050842</v>
+        <v>0.3891645967960358</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7464362382888794</v>
+        <v>0.6384894847869873</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6017884016036987</v>
+        <v>0.7259119749069214</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5839254856109619</v>
+        <v>0.8649231791496277</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6112000942230225</v>
+        <v>0.5545911192893982</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5030508637428284</v>
+        <v>0.6214561462402344</v>
       </c>
     </row>
     <row r="45">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6033989787101746</v>
+        <v>0.3791481256484985</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7698906660079956</v>
+        <v>0.6432287096977234</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6774432063102722</v>
+        <v>0.633442759513855</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6084575057029724</v>
+        <v>0.3072678744792938</v>
       </c>
     </row>
     <row r="49">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.9197759628295898</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6210138201713562</v>
+        <v>0.6163329482078552</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5918460488319397</v>
+        <v>0.4217613935470581</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8660696148872375</v>
+        <v>0.5025006532669067</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.258831262588501</v>
+        <v>0.8745283484458923</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6663077473640442</v>
+        <v>0.6197965741157532</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6057952642440796</v>
+        <v>0.9221321940422058</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5789650082588196</v>
+        <v>0.4713828265666962</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6966500878334045</v>
+        <v>0.9448973536491394</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.385038435459137</v>
+        <v>0.7285944223403931</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.795908510684967</v>
+        <v>0.6933498382568359</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.6041257977485657</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412559300661087</v>
+        <v>0.3205289542675018</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7020283937454224</v>
+        <v>0.5423895120620728</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8193920254707336</v>
+        <v>0.8533948063850403</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.2485394775867462</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2936906218528748</v>
+        <v>0.7951348423957825</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7262140512466431</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.4664132297039032</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8234368562698364</v>
+        <v>0.4713828265666962</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7050462365150452</v>
+        <v>0.8694318532943726</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9026284217834473</v>
+        <v>0.6666061878204346</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6391913890838623</v>
+        <v>0.6830376386642456</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.703619658946991</v>
+        <v>0.7894377112388611</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7607497572898865</v>
+        <v>0.8443443775177002</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6459665298461914</v>
+        <v>0.7146669030189514</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8360492587089539</v>
+        <v>0.6125005483627319</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7410905957221985</v>
+        <v>0.7384894490242004</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7478903532028198</v>
+        <v>0.6691387295722961</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8702749609947205</v>
+        <v>0.7957755923271179</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8081175684928894</v>
+        <v>0.7981648445129395</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5653080344200134</v>
+        <v>0.9197759628295898</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6413590908050537</v>
+        <v>0.7731035351753235</v>
       </c>
     </row>
     <row r="82">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7034230828285217</v>
+        <v>0.6114085912704468</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4932194948196411</v>
+        <v>0.9197759628295898</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7928641438484192</v>
+        <v>0.8046869039535522</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3275575339794159</v>
+        <v>0.5299978852272034</v>
       </c>
     </row>
     <row r="86">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5352857708930969</v>
+        <v>0.7715383768081665</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5125665068626404</v>
+        <v>0.672782301902771</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6810833215713501</v>
+        <v>0.7187298536300659</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.7157014608383179</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5530228018760681</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8558724522590637</v>
+        <v>0.3893476724624634</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.410637229681015</v>
+        <v>0.5634300112724304</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5792056322097778</v>
+        <v>0.6391636729240417</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9518547058105469</v>
+        <v>0.5591800212860107</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6347335577011108</v>
+        <v>0.3309685885906219</v>
       </c>
     </row>
     <row r="96">
@@ -3115,14 +3115,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4968899786472321</v>
+        <v>0.3480672538280487</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6414059400558472</v>
+        <v>0.5370301604270935</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.610224723815918</v>
+        <v>0.8156704902648926</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6620907187461853</v>
+        <v>0.7194654941558838</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6049568057060242</v>
+        <v>0.8744093775749207</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5957988500595093</v>
+        <v>0.7835262417793274</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8114293813705444</v>
+        <v>0.7378703951835632</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4914695024490356</v>
+        <v>0.3369420170783997</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6336064338684082</v>
+        <v>0.7669355273246765</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6919984817504883</v>
+        <v>0.528857946395874</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7156000733375549</v>
+        <v>0.9302495121955872</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7332616448402405</v>
+        <v>0.4715624749660492</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5931234359741211</v>
+        <v>0.6388089060783386</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.6462874412536621</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.281939297914505</v>
+        <v>0.7927911281585693</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6811848282814026</v>
+        <v>0.7424052953720093</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.4371479153633118</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5314717888832092</v>
+        <v>0.2705742120742798</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2590746581554413</v>
+        <v>0.3152963519096375</v>
       </c>
     </row>
     <row r="115">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3651,10 +3651,10 @@
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.303787499666214</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7699278593063354</v>
+        <v>0.7375757694244385</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6204272508621216</v>
+        <v>0.6686026453971863</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2489601224660873</v>
+        <v>0.83266681432724</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4333881735801697</v>
+        <v>0.8733019828796387</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8460242748260498</v>
+        <v>0.5794715285301208</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8240159153938293</v>
+        <v>0.4818586707115173</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3939111828804016</v>
+        <v>0.2852860391139984</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7816299796104431</v>
+        <v>0.6798679232597351</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7663061618804932</v>
+        <v>0.4181395471096039</v>
       </c>
     </row>
     <row r="125">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5257512927055359</v>
+        <v>0.5733352303504944</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7181354761123657</v>
+        <v>0.7896430492401123</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.2705742120742798</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.782905101776123</v>
+        <v>0.8423524498939514</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2566835880279541</v>
+        <v>0.8745283484458923</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4728507697582245</v>
+        <v>0.677071213722229</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.8508989214897156</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7606334686279297</v>
+        <v>0.430466890335083</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7739090919494629</v>
+        <v>0.6087043881416321</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5765131115913391</v>
+        <v>0.6685768365859985</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8331655859947205</v>
+        <v>0.6119810342788696</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.3480672538280487</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5277919173240662</v>
+        <v>0.715753972530365</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7061224579811096</v>
+        <v>0.5393372178077698</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7430756688117981</v>
+        <v>0.3152963519096375</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3250497281551361</v>
+        <v>0.7290042638778687</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8289533853530884</v>
+        <v>0.722350001335144</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7032645344734192</v>
+        <v>0.6660188436508179</v>
       </c>
     </row>
     <row r="143">
@@ -4431,14 +4431,14 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4723906815052032</v>
+        <v>0.3826370239257812</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9558462500572205</v>
+        <v>0.6238716244697571</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4200733602046967</v>
+        <v>0.6432462334632874</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3422785103321075</v>
+        <v>0.40420201420784</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.314613401889801</v>
+        <v>0.8345443606376648</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4789038896560669</v>
+        <v>0.5702588558197021</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.8211039304733276</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5095199346542358</v>
+        <v>0.2705742120742798</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7404860854148865</v>
+        <v>0.2852860391139984</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8819120526313782</v>
+        <v>0.7808430790901184</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7467293739318848</v>
+        <v>0.6488242745399475</v>
       </c>
     </row>
     <row r="154">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.586546778678894</v>
+        <v>0.6684362292289734</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3065287470817566</v>
+        <v>0.5602806210517883</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4188736379146576</v>
+        <v>0.8854524493217468</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7291218638420105</v>
+        <v>0.2793919146060944</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6180161237716675</v>
+        <v>0.3893476724624634</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5676313638687134</v>
+        <v>0.3782347440719604</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.617241382598877</v>
+        <v>0.5753481984138489</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6840155720710754</v>
+        <v>0.9421886801719666</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8044084906578064</v>
+        <v>0.4926744401454926</v>
       </c>
     </row>
     <row r="163">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5136010050773621</v>
+        <v>0.3364416360855103</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6383135318756104</v>
+        <v>0.6531675457954407</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6152170896530151</v>
+        <v>0.9197759628295898</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.677447497844696</v>
+        <v>0.6514228582382202</v>
       </c>
     </row>
     <row r="167">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7399293780326843</v>
+        <v>0.3528290390968323</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.6446942687034607</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8437055945396423</v>
+        <v>0.4650765359401703</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.6033504605293274</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3187676668167114</v>
+        <v>0.7211806774139404</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8724782466888428</v>
+        <v>0.2927762269973755</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5038226246833801</v>
+        <v>0.5963741540908813</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6113190650939941</v>
+        <v>0.6407707333564758</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5771687626838684</v>
+        <v>0.6710942387580872</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3631279468536377</v>
+        <v>0.363008439540863</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8614095449447632</v>
+        <v>0.7679141759872437</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.2604509890079498</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6649743914604187</v>
+        <v>0.4213968813419342</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.4266336262226105</v>
+        <v>0.6059927344322205</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6336957216262817</v>
+        <v>0.6860723495483398</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5680606961250305</v>
+        <v>0.734160840511322</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3265554904937744</v>
+        <v>0.7068406939506531</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.8087567090988159</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8634065985679626</v>
+        <v>0.5794715285301208</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4875545501708984</v>
+        <v>0.6426036357879639</v>
       </c>
     </row>
     <row r="187">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="E187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6368314623832703</v>
+        <v>0.4259360730648041</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.6558406352996826</v>
+        <v>0.8814135193824768</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.2668625712394714</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3063596785068512</v>
+        <v>0.8460705280303955</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8858781456947327</v>
+        <v>0.4988085925579071</v>
       </c>
     </row>
     <row r="192">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3548375070095062</v>
+        <v>0.9197759628295898</v>
       </c>
     </row>
     <row r="193">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6997365355491638</v>
+        <v>0.3223458230495453</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.9197759628295898</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6693964600563049</v>
+        <v>0.7245678901672363</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.769239068031311</v>
+        <v>0.668815016746521</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6082947254180908</v>
+        <v>0.793222188949585</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9181444048881531</v>
+        <v>0.6263126134872437</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3689545392990112</v>
+        <v>0.7938902378082275</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7717381119728088</v>
+        <v>0.6863574385643005</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5185515284538269</v>
+        <v>0.5265519022941589</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7778035998344421</v>
+        <v>0.6446942687034607</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8072157502174377</v>
+        <v>0.9197759628295898</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.5146612524986267</v>
       </c>
     </row>
     <row r="205">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6839323043823242</v>
+        <v>0.5674219727516174</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7519806623458862</v>
+        <v>0.4802463948726654</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4055080413818359</v>
+        <v>0.5835251808166504</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030769228935242</v>
+        <v>0.6204719543457031</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.9197759628295898</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5765379667282104</v>
+        <v>0.5510730147361755</v>
       </c>
     </row>
   </sheetData>
